--- a/graphics/cards.xlsx
+++ b/graphics/cards.xlsx
@@ -430,12 +430,100 @@
   <si>
     <t>Electric Scales, A Burning Core, And a Hunger for Chaos - There's No Stopping This Beast.</t>
   </si>
+  <si>
+    <t>Ashke, Seductress of the Server</t>
+  </si>
+  <si>
+    <t>Legendary WorldWeaver -Ashke</t>
+  </si>
+  <si>
+    <t>Persuasive Command:+1 Gain control of target unit untill end of turn. It gains speed. At the beginning of your next upkeep, Exile it untill Ashke leaves the Grid.</t>
+  </si>
+  <si>
+    <t>Toxic Influence: -2 Target opponet discards a card. If they discard a nonnode card, you may return target creature from your deletepile to your hand.</t>
+  </si>
+  <si>
+    <t>Seduction of the System: -7 You gain a token with "Whenever a player casts a spell copy it, and pick new targets. Any player whose spell you copy loses 3 life</t>
+  </si>
+  <si>
+    <t>The code, Much like your lives, are mine to control.</t>
+  </si>
+  <si>
+    <t>Dot Matrix, Grid Tech</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_uncommon.png</t>
+  </si>
+  <si>
+    <t>2 colorless 1 glitch 1 code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit — Grid Technician </t>
+  </si>
+  <si>
+    <r>
+      <t>Data Patch (Activated):</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>1U, Tap</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>: Target Unit gains Shielded until the end of the upload.</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Patch (Activated): 1Glitch, Tap: Target Unit gains Shielded until the end of the upload.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dot keeps the Grid running smoothly, one patch at a time. </t>
+  </si>
+  <si>
+    <t>Kernel Panic</t>
+  </si>
+  <si>
+    <t>2 colorless 3 code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit — Wyvern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Overload (Activated): 1R: Kernel Panic deals 1 damage to all Units. If at least 5 damage is dealt this way, exile Kernel Panic and create two 2/2 “Fragmented Kernel” Unit tokens.
+</t>
+  </si>
+  <si>
+    <t>When the core collapses, everything else follows</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +574,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -507,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1"/>
@@ -534,6 +633,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
       <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="G28">
-      <selection activeCell="K31" activeCellId="0" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="G34">
+      <selection activeCell="K48" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1245,42 +1347,128 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
+        <v>138</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="J31">
         <v>4</v>
       </c>
       <c r="K31" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" ht="123">
+      <c r="A38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
